--- a/_content/training/2025/trainingsuren-2025-2026.xlsx
+++ b/_content/training/2025/trainingsuren-2025-2026.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29029"/>
   <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stefan Coenen\Documents\Stefan\Documents\Basket\Basket 2025-2026\trainingsuren 25-26\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stefan Coenen\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF4A3D4C-81BE-4E1D-A1DE-0B014CBE224F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{01EA1702-6F46-4054-ACBE-402DD45CD6DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Maandag" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="68">
   <si>
     <t>Lummen</t>
   </si>
@@ -227,6 +227,12 @@
   </si>
   <si>
     <t>U10C/U12D</t>
+  </si>
+  <si>
+    <t>U16B/C trainen niet in Spectrum op de eerste maandag van de maand</t>
+  </si>
+  <si>
+    <t>U14 A/B</t>
   </si>
 </sst>
 </file>
@@ -349,7 +355,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -386,6 +392,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="25">
     <border>
@@ -744,9 +756,6 @@
     <xf numFmtId="20" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -788,477 +797,115 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="39">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Verdana"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Verdana"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Verdana"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Verdana"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Verdana"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Verdana"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Verdana"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Verdana"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Verdana"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="hh:mm"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Verdana"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Verdana"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1496,10 +1143,8 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -1509,12 +1154,6 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -1540,25 +1179,15 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
         <top style="thin">
           <color indexed="64"/>
         </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -1584,25 +1213,51 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
         <top style="thin">
           <color indexed="64"/>
         </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Verdana"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1720,6 +1375,363 @@
         <horizontal style="thin">
           <color indexed="64"/>
         </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Verdana"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Verdana"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Verdana"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="hh:mm"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Verdana"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Verdana"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Verdana"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Verdana"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Verdana"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Verdana"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Verdana"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -2260,49 +2272,49 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabel1411" displayName="Tabel1411" ref="A2:F11" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Dinsdag" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Vijfsprong 1" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Vijfsprong 2" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Vijfsprong 3" dataDxfId="0"/>
-    <tableColumn id="5" xr3:uid="{1DF9703A-FF5B-4C27-8073-EC9E16E80F30}" name="unit 3" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{860DD020-0328-4B07-86E6-F88276D2D7A2}" name="unit 4" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Vijfsprong 1" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Vijfsprong 2" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Vijfsprong 3" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{1DF9703A-FF5B-4C27-8073-EC9E16E80F30}" name="unit 3" dataDxfId="21"/>
+    <tableColumn id="6" xr3:uid="{860DD020-0328-4B07-86E6-F88276D2D7A2}" name="unit 4" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabel1615" displayName="Tabel1615" ref="A2:D11" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabel1615" displayName="Tabel1615" ref="A2:D11" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Woensdag" dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Vijfsprong 1" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Vijfsprong 2" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Vijfsprong 3" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Woensdag" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Vijfsprong 1" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Vijfsprong 2" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Vijfsprong 3" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabel1816" displayName="Tabel1816" ref="A2:E11" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabel1816" displayName="Tabel1816" ref="A2:E11" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Donderdag" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Vijfsprong 1" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Vijfsprong 2" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Vijfsprong 3" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="SPECTRUM" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Donderdag" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Vijfsprong 1" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Vijfsprong 2" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Vijfsprong 3" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="SPECTRUM" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tabel11017" displayName="Tabel11017" ref="A2:E13" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tabel11017" displayName="Tabel11017" ref="A2:E13" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Vrijdag" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Vijfsprong 1" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Vijfsprong 2" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Vijfsprong 3" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="SPECTRUM" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Vrijdag" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Vijfsprong 1" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Vijfsprong 2" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Vijfsprong 3" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="SPECTRUM" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2612,48 +2624,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="61"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="43"/>
       <c r="G1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="42"/>
-      <c r="I1" s="62"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="44"/>
     </row>
     <row r="2" spans="1:10" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="40" t="s">
+      <c r="F2" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="60" t="s">
+      <c r="G2" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="H2" s="60" t="s">
+      <c r="H2" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="60" t="s">
+      <c r="I2" s="42" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2661,22 +2673,22 @@
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="33" t="s">
+      <c r="B3" s="39"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="34" t="s">
+      <c r="F3" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="G3" s="34" t="s">
+      <c r="G3" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="34" t="s">
+      <c r="H3" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="I3" s="34" t="s">
+      <c r="I3" s="28" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2684,28 +2696,28 @@
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="D4" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="E4" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="F4" s="34" t="s">
+      <c r="F4" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="34" t="s">
+      <c r="G4" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="34" t="s">
+      <c r="H4" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="I4" s="34" t="s">
+      <c r="I4" s="28" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2713,28 +2725,28 @@
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="E5" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="F5" s="34" t="s">
+      <c r="F5" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="34" t="s">
+      <c r="G5" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="H5" s="34" t="s">
+      <c r="H5" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="I5" s="34" t="s">
+      <c r="I5" s="28" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2742,20 +2754,20 @@
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="35" t="s">
+      <c r="D6" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
       <c r="J6" t="s">
         <v>9</v>
       </c>
@@ -2846,8 +2858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2858,14 +2870,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
       <c r="E1" s="52" t="s">
         <v>1</v>
       </c>
@@ -2875,19 +2887,19 @@
       <c r="A2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="24" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2895,47 +2907,47 @@
       <c r="A3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="55" t="s">
+      <c r="B3" s="37"/>
+      <c r="C3" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="55" t="s">
+      <c r="D3" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
     </row>
     <row r="4" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="33" t="s">
+      <c r="B4" s="17"/>
+      <c r="C4" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="D4" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
     </row>
     <row r="5" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="33" t="s">
+      <c r="B5" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="33" t="s">
+      <c r="D5" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="E5" s="34" t="s">
+      <c r="E5" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="34" t="s">
+      <c r="F5" s="28" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2943,19 +2955,19 @@
       <c r="A6" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="34" t="s">
+      <c r="D6" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="34" t="s">
+      <c r="E6" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="34" t="s">
+      <c r="F6" s="28" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2963,19 +2975,19 @@
       <c r="A7" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="34" t="s">
+      <c r="C7" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="D7" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="34" t="s">
+      <c r="E7" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="34" t="s">
+      <c r="F7" s="28" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2983,65 +2995,65 @@
       <c r="A8" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="34" t="s">
+      <c r="D8" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
     </row>
     <row r="9" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="34" t="s">
+      <c r="D9" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
     </row>
     <row r="10" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="34" t="s">
+      <c r="C10" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="34" t="s">
+      <c r="D10" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
     </row>
     <row r="11" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="34" t="s">
+      <c r="D11" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3075,44 +3087,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="44" t="s">
+      <c r="C1" s="55"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="45"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="58"/>
     </row>
     <row r="2" spans="1:15" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="40" t="s">
+      <c r="E2" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="40" t="s">
+      <c r="F2" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="G2" s="40" t="s">
+      <c r="G2" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="40" t="s">
+      <c r="H2" s="34" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3120,19 +3132,19 @@
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="50" t="s">
+      <c r="D3" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
       <c r="I3" t="s">
         <v>9</v>
       </c>
@@ -3141,25 +3153,25 @@
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="34" t="s">
+      <c r="D4" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="E4" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="F4" s="34" t="s">
+      <c r="F4" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="34" t="s">
+      <c r="G4" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="H4" s="36" t="s">
+      <c r="H4" s="30" t="s">
         <v>47</v>
       </c>
       <c r="O4" t="s">
@@ -3170,25 +3182,25 @@
       <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="E5" s="34" t="s">
+      <c r="E5" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="F5" s="34" t="s">
+      <c r="F5" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="34" t="s">
+      <c r="G5" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="H5" s="36" t="s">
+      <c r="H5" s="30" t="s">
         <v>47</v>
       </c>
     </row>
@@ -3196,25 +3208,25 @@
       <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="34" t="s">
+      <c r="D6" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="34" t="s">
+      <c r="E6" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="F6" s="34" t="s">
+      <c r="F6" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="34" t="s">
+      <c r="G6" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="H6" s="36" t="s">
+      <c r="H6" s="30" t="s">
         <v>47</v>
       </c>
     </row>
@@ -3222,91 +3234,91 @@
       <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="D7" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
     </row>
     <row r="8" spans="1:15" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="33" t="s">
+      <c r="C8" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="36" t="s">
+      <c r="D8" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
     </row>
     <row r="9" spans="1:15" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="34" t="s">
+      <c r="D9" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
     </row>
     <row r="10" spans="1:15" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="34" t="s">
+      <c r="C10" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="34" t="s">
+      <c r="D10" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
     </row>
     <row r="11" spans="1:15" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="34" t="s">
+      <c r="D11" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
     </row>
     <row r="12" spans="1:15" ht="24.9" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
@@ -3328,7 +3340,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView zoomScale="108" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D2"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3341,30 +3353,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
     </row>
     <row r="2" spans="1:6" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="13" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3372,49 +3384,51 @@
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="D3" s="50" t="s">
+      <c r="D3" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="E3" s="37"/>
-      <c r="F3" s="12"/>
+      <c r="E3" s="31"/>
     </row>
     <row r="4" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="D4" s="34" t="s">
+      <c r="D4" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="E4" s="28" t="s">
         <v>61</v>
+      </c>
+      <c r="F4" s="62" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="E5" s="34" t="s">
+      <c r="E5" s="28" t="s">
         <v>61</v>
       </c>
     </row>
@@ -3422,16 +3436,16 @@
       <c r="A6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="34" t="s">
+      <c r="D6" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="34" t="s">
+      <c r="E6" s="28" t="s">
         <v>61</v>
       </c>
     </row>
@@ -3439,46 +3453,46 @@
       <c r="A7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="34" t="s">
+      <c r="C7" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="D7" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="17"/>
+      <c r="E7" s="16"/>
     </row>
     <row r="8" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="34" t="s">
+      <c r="D8" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="17"/>
+      <c r="E8" s="16"/>
     </row>
     <row r="9" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="34" t="s">
+      <c r="D9" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="34" t="s">
+      <c r="E9" s="28" t="s">
         <v>57</v>
       </c>
     </row>
@@ -3486,16 +3500,16 @@
       <c r="A10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="34" t="s">
+      <c r="C10" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="34" t="s">
+      <c r="D10" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="34" t="s">
+      <c r="E10" s="28" t="s">
         <v>57</v>
       </c>
     </row>
@@ -3503,16 +3517,16 @@
       <c r="A11" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="34" t="s">
+      <c r="D11" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="34" t="s">
+      <c r="E11" s="28" t="s">
         <v>57</v>
       </c>
     </row>
@@ -3533,8 +3547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3549,48 +3563,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="41" t="s">
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="43"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="61"/>
     </row>
     <row r="2" spans="1:11" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="40" t="s">
+      <c r="F2" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="40" t="s">
+      <c r="G2" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="H2" s="40" t="s">
+      <c r="H2" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="40" t="s">
+      <c r="I2" s="34" t="s">
         <v>44</v>
       </c>
     </row>
@@ -3598,45 +3612,45 @@
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="51" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="51" t="s">
+      <c r="B3" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="50" t="s">
+      <c r="C3" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
+      <c r="D3" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="15"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
     </row>
     <row r="4" spans="1:11" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="34" t="s">
+      <c r="D4" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="34" t="s">
+      <c r="E4" s="15"/>
+      <c r="F4" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="34" t="s">
+      <c r="G4" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="H4" s="36" t="s">
+      <c r="H4" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="I4" s="36" t="s">
+      <c r="I4" s="30" t="s">
         <v>54</v>
       </c>
     </row>
@@ -3644,26 +3658,26 @@
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="39"/>
-      <c r="F5" s="34" t="s">
+      <c r="E5" s="33"/>
+      <c r="F5" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="34" t="s">
+      <c r="G5" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="H5" s="34" t="s">
+      <c r="H5" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="I5" s="34" t="s">
+      <c r="I5" s="28" t="s">
         <v>54</v>
       </c>
     </row>
@@ -3671,24 +3685,24 @@
       <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="34" t="s">
+      <c r="D6" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="34" t="s">
+      <c r="E6" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="34" t="s">
+      <c r="F6" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="34" t="s">
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="28" t="s">
         <v>54</v>
       </c>
     </row>
@@ -3696,24 +3710,24 @@
       <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="34" t="s">
+      <c r="C7" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="D7" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="34" t="s">
+      <c r="E7" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="34" t="s">
+      <c r="F7" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="34" t="s">
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="28" t="s">
         <v>39</v>
       </c>
       <c r="K7" t="s">
@@ -3724,24 +3738,22 @@
       <c r="A8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="34" t="s">
+      <c r="B8" s="19"/>
+      <c r="C8" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="34" t="s">
+      <c r="E8" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="34" t="s">
+      <c r="F8" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="36" t="s">
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="30" t="s">
         <v>39</v>
       </c>
     </row>
@@ -3749,22 +3761,22 @@
       <c r="A9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="34" t="s">
+      <c r="B9" s="19"/>
+      <c r="C9" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="38" t="s">
+      <c r="D9" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="34" t="s">
+      <c r="E9" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="34" t="s">
+      <c r="F9" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="36" t="s">
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="30" t="s">
         <v>39</v>
       </c>
     </row>
@@ -3772,30 +3784,30 @@
       <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="34" t="s">
+      <c r="B10" s="18"/>
+      <c r="C10" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="38" t="s">
+      <c r="D10" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="34" t="s">
+      <c r="E10" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="I10" s="24"/>
+      <c r="I10" s="23"/>
     </row>
     <row r="11" spans="1:11" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="34" t="s">
+      <c r="B11" s="15"/>
+      <c r="C11" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="38" t="s">
+      <c r="D11" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="34" t="s">
+      <c r="E11" s="28" t="s">
         <v>52</v>
       </c>
     </row>
@@ -3803,12 +3815,12 @@
       <c r="A12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="34" t="s">
+      <c r="B12" s="15"/>
+      <c r="C12" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="34" t="s">
+      <c r="D12" s="15"/>
+      <c r="E12" s="28" t="s">
         <v>52</v>
       </c>
     </row>
@@ -3819,7 +3831,7 @@
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
-      <c r="E13" s="34" t="s">
+      <c r="E13" s="28" t="s">
         <v>52</v>
       </c>
     </row>
